--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://drive.google.com/file/d/18xY6HIQXl2EeCDGuHpS-Nzu6vLkFkZr4/view?usp=share_link","2023.04.06_EDP_MB_Tras156_1.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1hMqKwYsx1GKeOq6wbgkePAbm9QiXk9iI/view?usp=share_link","2023.04.06_EDP_MB_Tras156_1.pdf")</f>
         <v/>
       </c>
       <c r="U2" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://drive.google.com/file/d/173K5SiB_UE1JC-09z5L56Ibx2r4DHQ1_/view?usp=share_link","2023.04.06_EDP_CF_1Herculano21.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/11fnm9AjtvtQz_c6TabxeIZGp8JH1-kGF/view?usp=share_link","2023.04.06_EDP_CF_1Herculano21.pdf")</f>
         <v/>
       </c>
       <c r="U3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://drive.google.com/file/d/13i3ywygZjcZlc4SUih1XCMwqexUuQPUt/view?usp=share_link","2023.04.06_EDP_MB_Tras156_3.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1dhUpITVD0O2rW4LxPNEZ6BvNaZfD69Jx/view?usp=share_link","2023.04.06_EDP_MB_Tras156_3.pdf")</f>
         <v/>
       </c>
       <c r="U4" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://drive.google.com/file/d/1CKLFIeOqWlHykj0xqfjep4g43w6dCGX0/view?usp=share_link","2023.04.28_Aguas_LV_Camoes719_RCTr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1Cf3lLy4SuDyB-BYnA1zNjSmCFKZO35NZ/view?usp=share_link","2023.04.28_Aguas_LV_Camoes719_RCTr.pdf")</f>
         <v/>
       </c>
       <c r="U5" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://drive.google.com/file/d/1qpqAvgOIK-vkUSm2tjI7zXPhldFa6pQp/view?usp=share_link","2023.04.20_Aguas_AD_Alexandre233_2Fr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/15tXYfZNXtLk2RkZ0BsavwjJQJULBayeJ/view?usp=share_link","2023.04.20_Aguas_AD_Alexandre233_2Fr.pdf")</f>
         <v/>
       </c>
       <c r="U6" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://drive.google.com/file/d/1nhIWJUNcRYE64pkh5sA8p1G7Qbd54XoN/view?usp=share_link","2023.04.26_Aguas_MS_Almada55_2DrTr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/15x5Xkho3t60e10n9EAzZsaOKiZsaOFft/view?usp=share_link","2023.04.26_Aguas_MS_Almada55_2DrTr.pdf")</f>
         <v/>
       </c>
       <c r="U7" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://drive.google.com/file/d/1fGVKxde-7bm3D3edz_55vgNTKN0TYA8D/view?usp=share_link","2023.04.06_Aguas_SR_Ricardo96_44.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1XhiGxwWRC8FfJuQBPP6sefqZtzFkm0Uo/view?usp=share_link","2023.04.06_Aguas_SR_Ricardo96_44.pdf")</f>
         <v/>
       </c>
       <c r="U8" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://drive.google.com/file/d/1zc5X90Z1zjC-VjDBl-9X2ZJVmzk4q3zB/view?usp=share_link","2023.04.29_Aguas_RM_Victor104_J.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1ZMOZMsZstS1pURIcXoLuafBJRzR6lojv/view?usp=share_link","2023.04.29_Aguas_RM_Victor104_J.pdf")</f>
         <v/>
       </c>
       <c r="U9" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://drive.google.com/file/d/14kpeLOcq0WxuiH8dIa6bMthwn1At49Oh/view?usp=share_link","2023.04.20_Aguas_RK_Alexandre189_1Tr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1aXVrjnyZ5ANT70z-0NjUQz9FtIefBzFC/view?usp=share_link","2023.04.20_Aguas_RK_Alexandre189_1Tr.pdf")</f>
         <v/>
       </c>
       <c r="U10" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://drive.google.com/file/d/12NctgEtOSm25_rlxrSJVUSbz0OUjLMEs/view?usp=share_link","2023.04.21_Aguas_JH_Conceicao67_22.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1WyC0sXtskxx_n1Lho-mpL4VA5qPBcBHo/view?usp=share_link","2023.04.21_Aguas_JH_Conceicao67_22.pdf")</f>
         <v/>
       </c>
       <c r="U11" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://drive.google.com/file/d/1RjTuDUwWloDr16ScBmsK6WV3dWflm1WM/view?usp=share_link","2023.04.21_Aguas_LF_Conceicao67_2.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1tunsj1Ypjz9YDo5CSnWuqHjQIFNRfauG/view?usp=share_link","2023.04.21_Aguas_LF_Conceicao67_2.pdf")</f>
         <v/>
       </c>
       <c r="U12" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://drive.google.com/file/d/1TYoHF8liau94fO-7D3nkcJJG8sYmIwCf/view?usp=share_link","2023.04.27_Aguas_AV_Guimaraes80_5.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1szXbCfAhhus0ULWxWzBSy8AdxQ7O1KH0/view?usp=share_link","2023.04.27_Aguas_AV_Guimaraes80_5.pdf")</f>
         <v/>
       </c>
       <c r="U13" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://drive.google.com/file/d/19lV6_cNMPKuWDE3VZzjMN26hiim5lpw4/view?usp=share_link","2023.04.26_Aguas_PM_Cedofeita68_3Fr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1-TKjdqOsOlj10O4DQ79G1YUxiuHuJViC/view?usp=share_link","2023.04.26_Aguas_PM_Cedofeita68_3Fr.pdf")</f>
         <v/>
       </c>
       <c r="U14" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://drive.google.com/file/d/14FQ81FguL_x6mmplfSG9yhuW35IsVKw-/view?usp=share_link","2023.04.26_Aguas_TJ_Almada55_4DrTr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/16qf1xN5NuK7WcBBNNZR1ePgNty628k_p/view?usp=share_link","2023.04.26_Aguas_TJ_Almada55_4DrTr.pdf")</f>
         <v/>
       </c>
       <c r="U15" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://drive.google.com/file/d/1ms1AxE-NAtrNfQDLrrvDxxL_Dm2aLiBA/view?usp=share_link","2023.04.26_Altice(MEO)_JR_Loios78_4Tr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1WqNoaNnkbpOpMHu6mC-T0wcLPFqlrQEr/view?usp=share_link","2023.04.26_Altice(MEO)_JR_Loios78_4Tr.pdf")</f>
         <v/>
       </c>
       <c r="U16" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://drive.google.com/file/d/1gyp-fTZlMAqA5IXwvmxX2A5D56HZbVGM/view?usp=share_link","2023.04.05_Altice(MEO)_MB_Tras156_3.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1YCX5Qg7r1wvmJphJXcFs722Qo2AXJdzu/view?usp=share_link","2023.04.05_Altice(MEO)_MB_Tras156_3.pdf")</f>
         <v/>
       </c>
       <c r="U17" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://drive.google.com/file/d/1JrlKyPNhZcLl5pGFMankSEeOUEFhUByI/view?usp=share_link","2023.04.26_Altice(MEO)_HM_Mouzinho85_3TrEs.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1RXvEKCewKGFe0DX91vRrWh_kVl9LjSgJ/view?usp=share_link","2023.04.26_Altice(MEO)_HM_Mouzinho85_3TrEs.pdf")</f>
         <v/>
       </c>
       <c r="U18" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://drive.google.com/file/d/18aNznmh1FNRZcduZH_G18j08DTn_PXrv/view?usp=share_link","2023.04.05_Altice(MEO)_MB_Tras156_1.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1AoHPdDY9c7v_W3_US1pMnBMKickad0Pl/view?usp=share_link","2023.04.05_Altice(MEO)_MB_Tras156_1.pdf")</f>
         <v/>
       </c>
       <c r="U19" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://drive.google.com/file/d/1hEiA7Vpp-O8a74pr1Jzo7IMKOMYCMEvw/view?usp=share_link","2023.04.26_Altice(MEO)_EG_Alcantara16_2Fr.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1dGS-CVKykTTpVj7zG6_j_BuggI27Sr62/view?usp=share_link","2023.04.26_Altice(MEO)_EG_Alcantara16_2Fr.pdf")</f>
         <v/>
       </c>
       <c r="U20" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://drive.google.com/file/d/1Yq_3BVrwR9MwStarFO0lEwnzGOBJxAg4/view?usp=share_link","2023.04.26_Altice(MEO)_OD_Ribeira26_1Es.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1eljinRA-MIuZfG2jl9aq7eK6dkPvLwTx/view?usp=share_link","2023.04.26_Altice(MEO)_OD_Ribeira26_1Es.pdf")</f>
         <v/>
       </c>
       <c r="U21" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://drive.google.com/file/d/1_kEVohsaJ-52vXFJL0bwn2x2b8jwnjN8/view?usp=share_link","2023.04.26_Altice(MEO)_AV_Guimaraes80_5.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1gp7K8FWyRNcJt6YOCAyTvrXNImFCXqyY/view?usp=share_link","2023.04.26_Altice(MEO)_AV_Guimaraes80_5.pdf")</f>
         <v/>
       </c>
       <c r="U22" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://drive.google.com/file/d/14oGTkSNCXvOt3CuB2s3kgH3WyeiI_x8H/view?usp=share_link","2023.04.26_Altice(MEO)_SR_Ricardo96_44.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1T3awo5-dhxFnv6H9kibJOUHmB7LWlTDP/view?usp=share_link","2023.04.26_Altice(MEO)_SR_Ricardo96_44.pdf")</f>
         <v/>
       </c>
       <c r="U23" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://drive.google.com/file/d/1IvYMHc5toMYAH4MD8KJWif3t8LcimKYZ/view?usp=share_link","2023.04.26_Altice(MEO)_KC_Pia24A_RCEs.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1tFO-Hbclx-PaIJVoQTNDFiH-yacyhmij/view?usp=share_link","2023.04.26_Altice(MEO)_KC_Pia24A_RCEs.pdf")</f>
         <v/>
       </c>
       <c r="U24" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://drive.google.com/file/d/18JcnlAVD6M-N8zFxCdBckZIbTpr5JNJ8/view?usp=share_link","2023.04.26_Altice(MEO)_LV_Loule235_1D.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1NhU4nMlURNKfh-JRTNO3ehrBjoUvWnkU/view?usp=share_link","2023.04.26_Altice(MEO)_LV_Loule235_1D.pdf")</f>
         <v/>
       </c>
       <c r="U25" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://drive.google.com/file/d/1rC1QtRiAQlqX4OxLiLYOGE7eOku-LYd0/view?usp=share_link","2023.04.26_Altice(MEO)_JH_Conceicao67_22.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/12XvHRb3jwWp-9DTETHFweYByFKcSOkJ6/view?usp=share_link","2023.04.26_Altice(MEO)_JH_Conceicao67_22.pdf")</f>
         <v/>
       </c>
       <c r="U26" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://drive.google.com/file/d/1VIHoDrZi2KPYBvpqf0nEjoWKtTEB-iqV/view?usp=share_link","2023.04.26_Altice(MEO)_RM_Victor104_J.pdf")</f>
+        <f>HYPERLINK("https://drive.google.com/file/d/1L5ZljjWAwSNp6QjTwYIisZvQ4DVF9oW2/view?usp=share_link","2023.04.26_Altice(MEO)_RM_Victor104_J.pdf")</f>
         <v/>
       </c>
       <c r="U27" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2023/05/10.07:44:58</t>
+          <t>2023/05/12.08:59:11</t>
         </is>
       </c>
     </row>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,4716 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HC_Mouzinho213_1B</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>160804434773</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>156005356114</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023/2/23 ~ 2023/3/22</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2023/2/23</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2023/3/22</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2023/3/24</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2023/4/17</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>HC_HongChung</t>
+        </is>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://drive.google.com/file/d/1zcznmueGhf-xeiUZ_paVulh0G17H123b/view?usp=share_link","2023.04.17_EDP_HC_Mouzinho213_1B.pdf")</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/156005356114.PDF</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MB_Tras156_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>160805853755</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>212003964405</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023/2/11 ~ 2023/3/10</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2023/2/11</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2023/3/10</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2023/3/16</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2023/4/6</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://drive.google.com/file/d/10RO16_t59fNekrOuFHbmbfrbgmwZnQ7K/view?usp=share_link","2023.04.06_EDP_MB_Tras156_1.pdf")</f>
+        <v/>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA EDP_MARCO_1_ FT2023_K3423_340011390211.PDF</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MB_Tras156_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>160805853770</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>102007666523</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023/2/25 ~ 2023/3/24</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2023/2/25</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2023/3/24</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2023/3/30</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2023/4/21</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://drive.google.com/file/d/1mRNLEflgO02ws825ciwig5QNJl4X0uRh/view?usp=share_link","2023.04.21_EDP_MB_Tras156_2.pdf")</f>
+        <v/>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/2023_05_12_11_33_21_2C0C359B-E5F2-4FFF-A22C-FFD94F61489C.PDF</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CF_1Herculano21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>160804960767</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>190004911516</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023/2/15 ~ 2023/3/14</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2023/2/15</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2023/3/14</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2023/3/16</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2023/4/6</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>CF_CasasFTU</t>
+        </is>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://drive.google.com/file/d/1v71iJkznpVb8qgBzQpIMkVa5BdFs2OHl/view?usp=share_link","2023.04.06_EDP_CF_1Herculano21.pdf")</f>
+        <v/>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/190004911516.PDF</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LV_Bonjardim668_2H</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>160804526319</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>152005394383</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023/2/23 ~ 2023/3/22</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2023/2/23</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2023/3/22</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2023/3/24</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2023/4/17</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>82.53</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>LV_LoboViajante</t>
+        </is>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://drive.google.com/file/d/1GfB8n5JucTyt49z8alz4JbDyHhD8rrmJ/view?usp=share_link","2023.04.17_EDP_LV_Bonjardim668_2H.pdf")</f>
+        <v/>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/152005394383.PDF</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MB_Tras156_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>160805853777</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>212003964406</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023/2/11 ~ 2023/3/10</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2023/2/11</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2023/3/10</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2023/3/16</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2023/4/6</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://drive.google.com/file/d/1AYjy8lDcZFWSrdMnbAZ6QZCxixgU_ZxH/view?usp=share_link","2023.04.06_EDP_MB_Tras156_3.pdf")</f>
+        <v/>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA EDP_MARCO_3_ FT2023_K3423_340011390212.PDF</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LV_Camoes719_RCTr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4957062</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4159449</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10015919</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>230402709025522</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023/03/11 ~ 2023/04/11</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2023/03/11</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2023/04/11</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2023/4/13</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2023/4/28</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>LV_LoboViajante</t>
+        </is>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://drive.google.com/file/d/1TCI4pP9S38zBIBN69RBVjzWYBX8j779u/view?usp=share_link","2023.04.28_Aguas_LV_Camoes719_RCTr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144846546.PDF</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AD_Alexandre233_2Fr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5025531</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4203800</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>202088</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>230402709008154</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023/03/03 ~ 2023/04/05</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2023/04/05</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2023/4/05</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2023/4/20</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>AD_AlessiaDiDio</t>
+        </is>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://drive.google.com/file/d/1Kl-Tl141KDSN_2cRCUjrJcFM3bfrNxEw/view?usp=share_link","2023.04.20_Aguas_AD_Alexandre233_2Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144766339.PDF</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MS_Viterbo81_1Fr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4997875</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4178288</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10011395</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>230302709045734</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023/02/15 ~ 2023/03/13</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2023/3/22</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2023/4/06</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>MS_MartinStuerchler</t>
+        </is>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://drive.google.com/file/d/1lCJhgFF6Xw-juCHjJ82_SKhn-VAtHFLc/view?usp=share_link","2023.04.06_Aguas_MS_Viterbo81_1Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144645419.PDF</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MS_Almada55_2DrTr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4985873</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4178288</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10015220</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>230402709017295</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023/03/07 ~ 2023/04/05</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2023/04/05</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2023/4/11</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>MS_MartinStuerchler</t>
+        </is>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://drive.google.com/file/d/1Z4v3AI2zD7PiPaEkcAQ6sgWr_S-3YEyi/view?usp=share_link","2023.04.26_Aguas_MS_Almada55_2DrTr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144813668.PDF</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SR_Ricardo96_44</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5024036</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4202977</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10018817</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>230302709045747</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023/02/15 ~ 2023/03/17</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2023/3/22</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2023/4/06</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>SR_SandyRibeiro</t>
+        </is>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://drive.google.com/file/d/1_yEiJPz-96srsUnDKq1FW_JY8_b5DogQ/view?usp=share_link","2023.04.06_Aguas_SR_Ricardo96_44.pdf")</f>
+        <v/>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144645432.PDF</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FM_Antero43_1Tr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5038945</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>4212940</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10015726</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>230302709038370</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023/02/22 ~ 2023/03/17</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2023/4/01</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>FM_FredMolina</t>
+        </is>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://drive.google.com/file/d/1iq4S_ciledBsvapRs8YMk6NSwbPTLSWA/view?usp=share_link","2023.04.01_Aguas_FM_Antero43_1Tr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144612396.PDF</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RM_Victor104_J</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4980909</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4175241</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>134668</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>230402709031356</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023/03/15 ~ 2023/04/13</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2023/03/15</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2023/04/13</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2023/4/14</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2023/4/29</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>RM_RaquelMoreira</t>
+        </is>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://drive.google.com/file/d/1JHGxaQaCyIeHAyw8TZFA25OUsg5nvBDW/view?usp=share_link","2023.04.29_Aguas_RM_Victor104_J.pdf")</f>
+        <v/>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144864357.PDF</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RK_Alexandre189_1Tr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5060112</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4227318</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>55401</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>230402709008354</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023/03/03 ~ 2023/04/05</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2023/04/05</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2023/4/05</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2023/4/20</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>RK_RafaelKraft</t>
+        </is>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://drive.google.com/file/d/15XGCxUO1AcyWPQSLyjm8B0kxw11WtNa8/view?usp=share_link","2023.04.20_Aguas_RK_Alexandre189_1Tr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144766551.PDF</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5025861</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4204002</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10018180</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>230402709010807</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023/03/07 ~ 2023/04/03</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2023/04/03</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2023/4/06</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2023/4/21</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>JH_JonasHagele</t>
+        </is>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://drive.google.com/file/d/1lABX19UaKAYTByideaDqJdYgM4jKLXUd/view?usp=share_link","2023.04.21_Aguas_JH_Conceicao67_22.pdf")</f>
+        <v/>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144780410.PDF</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LF_Conceicao67_2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5054289</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4223046</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>10018181</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>230402709011232</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023/03/07 ~ 2023/04/03</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2023/04/03</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2023/4/06</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2023/4/21</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>LF_LaurenzFauser</t>
+        </is>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://drive.google.com/file/d/1fN1pWjasEt2omSgVo66_XLGoHp9vCUl8/view?usp=share_link","2023.04.21_Aguas_LF_Conceicao67_2.pdf")</f>
+        <v/>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144780835.PDF</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LP_Cabral372_1Fr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5022220</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4201825</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>10019870</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>230302709041823</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023/02/24 ~ 2023/03/21</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2023/03/21</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2023/3/21</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2023/4/05</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>LP_LuisPires</t>
+        </is>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://drive.google.com/file/d/19lMMp4j3kAkjH36bca96dfNUSUIlwC4w/view?usp=share_link","2023.04.05_Aguas_LP_Cabral372_1Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144633596.PDF</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AV_Guimaraes80_5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5063479</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10022201</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>230402709022070</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023/03/09 ~ 2023/04/10</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2023/03/09</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2023/04/10</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2023/4/12</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2023/4/27</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>AV_AdanVillamarin</t>
+        </is>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://drive.google.com/file/d/1HjVz3Pg6vtUrBrqYFJZy6rT9WrMtV_9L/view?usp=share_link","2023.04.27_Aguas_AV_Guimaraes80_5.pdf")</f>
+        <v/>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144830409.PDF</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PM_Cedofeita68_3Fr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5001031</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4187935</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10015246</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>230402709016656</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023/03/08 ~ 2023/04/06</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2023/04/06</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2023/4/11</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>PM_PriscillaMenezes</t>
+        </is>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://drive.google.com/file/d/1SnY16v9upZGS6Z-JPadioKcs4c_n9aUA/view?usp=share_link","2023.04.26_Aguas_PM_Cedofeita68_3Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144813029.PDF</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TJ_Almada55_4DrTr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4997889</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10015226</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>230402709016503</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023/03/07 ~ 2023/04/05</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2023/04/05</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2023/4/11</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>TJ_Theo_JeremyDiDio</t>
+        </is>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://drive.google.com/file/d/15m-z0V8o2349TFKGCNDQgP90DfIs_7yM/view?usp=share_link","2023.04.26_Aguas_TJ_Almada55_4DrTr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144812876.PDF</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_GAIA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4095190/002</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4095190</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>10016073</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>23030362002954599</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023/02/17 ~ 2023/03/20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2023/3/21</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2023/4/05</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>65.27</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>BD_BryanDavis</t>
+        </is>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://drive.google.com/file/d/11W4ZSVuec5CF7IFLdsUlQ74bdpMdBwEc/view?usp=share_link","2023.04.05_Aguas_BD_Fernandes108_3.pdf")</f>
+        <v/>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/036.DP.23030362002954599.PDF</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_GAIA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4095190/001</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4095190</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10016074</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>23030362002954699</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023/02/17 ~ 2023/03/20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2023/3/21</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2023/4/05</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>BD_BryanDavis</t>
+        </is>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://drive.google.com/file/d/1GrhwKegDqMD618cog3A3_SIVEIPd98Op/view?usp=share_link","2023.04.05_Aguas_BD_Fernandes108_4.pdf")</f>
+        <v/>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/036.DP.23030362002954699.PDF</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EG_Alcantara16_2Fr</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>202320739459</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>29532671</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>6667198</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>20230/00730216</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023/02/21~2023/03/20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2023/03/21</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2023/04/13</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>EG_EduardoGomes</t>
+        </is>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://drive.google.com/file/d/1_Mz7tqNXfrnbvMOPA_D3Cx9rjw92LV1a/view?usp=share_link","2023.04.13_EPAL_EG_Alcantara16_2Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202300730216.PDF</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>OD_Ribeira26_1Es</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>202320740774</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>28689275</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>6803873</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>20230/00731531</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023/02/21~2023/03/20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2023/03/21</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2023/04/13</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>OD_OtavioDias</t>
+        </is>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://drive.google.com/file/d/1VuTqcqm_Vi_cRoHdg7bPsakjsHQnPXTM/view?usp=share_link","2023.04.13_EPAL_OD_Ribeira26_1Es.pdf")</f>
+        <v/>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202300731531.PDF</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JR_Loios78_4Tr</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1482030729</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>A789215861</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>JR_JulianaEstefano_RenatoMarcondes</t>
+        </is>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://drive.google.com/file/d/1LpxG8Ku_GCx10_gvkeeBTaXbUGmhuVmk/view?usp=share_link","2023.04.26_Altice(MEO)_JR_Loios78_4Tr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_789215861.PDF</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MB_Tras156_3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1419930859</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>A788101248</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://drive.google.com/file/d/1B6WW5FW-aD6rI3Wl31RICucHbgLHGT96/view?usp=share_link","2023.04.05_Altice(MEO)_MB_Tras156_3.pdf")</f>
+        <v/>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_ALTICE_MARCO_3_FT_A_788101248.PDF</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HM_Mouzinho85_3TrEs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1438348213</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1494741556</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>A789215863</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>HM_HaliimMoghazi</t>
+        </is>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://drive.google.com/file/d/14g7gA-wLM6Gg2jJOEk3cSCedigJx69wu/view?usp=share_link","2023.04.26_Altice(MEO)_HM_Mouzinho85_3TrEs.pdf")</f>
+        <v/>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_789215863.PDF</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MB_Tras156_1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1448930852</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>A788101249</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://drive.google.com/file/d/1tU7IHXKgrMhQtVaJBRHH7a88w04hQAJH/view?usp=share_link","2023.04.05_Altice(MEO)_MB_Tras156_1.pdf")</f>
+        <v/>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA ALTICE_MARCO_1_FT_A_788101249.PDF</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SR_Ricardo96_44</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1458040024</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1458040028</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>FTA/789175175</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>SR_SandyRibeiro</t>
+        </is>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://drive.google.com/file/d/1fgv2I9xCtt8Moy_dxSOp4ffXyCG7w06-/view?usp=share_link","2023.04.26_Altice(MEO)_SR_Ricardo96_44.pdf")</f>
+        <v/>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 789175175.PDF</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EG_Alcantara16_2Fr</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1432726057</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>A789215509</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>EG_EduardoGomes</t>
+        </is>
+      </c>
+      <c r="T31">
+        <f>HYPERLINK("https://drive.google.com/file/d/1qkPEprRY8ZWPF07YM-Cp6ZNBpfcwuX0l/view?usp=share_link","2023.04.26_Altice(MEO)_EG_Alcantara16_2Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_789215509.PDF</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OD_Ribeira26_1Es</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1481730769</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1450101606</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>A789215508</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>OD_OtavioDias</t>
+        </is>
+      </c>
+      <c r="T32">
+        <f>HYPERLINK("https://drive.google.com/file/d/1Js4KFmyNvvAl-wiVDGSOeUJLMRBl2QYI/view?usp=share_link","2023.04.26_Altice(MEO)_OD_Ribeira26_1Es.pdf")</f>
+        <v/>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_789215508.PDF</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RM_Victor104_J</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1490136235</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>A789215847</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>RM_RaquelMoreira</t>
+        </is>
+      </c>
+      <c r="T33">
+        <f>HYPERLINK("https://drive.google.com/file/d/1yjpGvWijo9JKQtgMZNUX3KqaMgzNCbNh/view?usp=share_link","2023.04.26_Altice(MEO)_RM_Victor104_J.pdf")</f>
+        <v/>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 789215847.PDF</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AV_Guimaraes80_5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1489046711</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>A789215838</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>30</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>AV_AdanVillamarin</t>
+        </is>
+      </c>
+      <c r="T34">
+        <f>HYPERLINK("https://drive.google.com/file/d/1zS_vqJd8l7GrXQ8bueLHdYuhpM14FySu/view?usp=share_link","2023.04.26_Altice(MEO)_AV_Guimaraes80_5.pdf")</f>
+        <v/>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_789215838.PDF</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FM_Antero43_1Tr</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1449140831</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1449140834</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>A788673944</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2023/3/23</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2023/4/13</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>FM_FredMolina</t>
+        </is>
+      </c>
+      <c r="T35">
+        <f>HYPERLINK("https://drive.google.com/file/d/1PWDxoA8a9xWrFEfR3WmRG8osU_ECAETi/view?usp=share_link","2023.04.13_Altice(MEO)_FM_Antero43_1Tr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 788673944.PDF</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>KC_Pia24A_RCEs</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1415838073</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>A789215510</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>KC_KarenCheng</t>
+        </is>
+      </c>
+      <c r="T36">
+        <f>HYPERLINK("https://drive.google.com/file/d/1yDZkB41BaD7l7pbRDGvvSc8j_NG6dgPD/view?usp=share_link","2023.04.26_Altice(MEO)_KC_Pia24A_RCEs.pdf")</f>
+        <v/>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 789215510.PDF</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LF_Conceicao67_2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1444445743</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1444445747</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>A788673946</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2023/3/23</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2023/4/13</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>LF_LaurenzFauser</t>
+        </is>
+      </c>
+      <c r="T37">
+        <f>HYPERLINK("https://drive.google.com/file/d/1pwXBTOSKLcWRU_Teezg9fmGipYl4o0fs/view?usp=share_link","2023.04.13_Altice(MEO)_LF_Conceicao67_2.pdf")</f>
+        <v/>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 788673946.PDF</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LV_Loule235_1D</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1430527938</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1481920841</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>A789215843</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>30</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>LV_LoboViajante</t>
+        </is>
+      </c>
+      <c r="T38">
+        <f>HYPERLINK("https://drive.google.com/file/d/1gQ8VPawLr3dg24fbHbX_7hIwN-zDaF6r/view?usp=share_link","2023.04.26_Altice(MEO)_LV_Loule235_1D.pdf")</f>
+        <v/>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 789215843.PDF</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1488439015</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1437238926</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>A789215856</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023/4</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2023/4/1</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2023/4/30</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2023/4/26</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>JH_JonasHagele</t>
+        </is>
+      </c>
+      <c r="T39">
+        <f>HYPERLINK("https://drive.google.com/file/d/1aYWApuOhSbp_QlGBiXehAFWiY1TNK8tT/view?usp=share_link","2023.04.26_Altice(MEO)_JH_Conceicao67_22.pdf")</f>
+        <v/>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 789215856.PDF</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LF_Mercadores83_2Tr</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1465445741</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1444445747</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>A788673947</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2023/3/23</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2023/4/13</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>LF_LaurenzFauser</t>
+        </is>
+      </c>
+      <c r="T40">
+        <f>HYPERLINK("https://drive.google.com/file/d/1H_mEMXma1jJTZckY_oc-sY3HGg2F781r/view?usp=share_link","2023.04.13_Altice(MEO)_LF_Mercadores83_2Tr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 788673947.PDF</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RK_Alexandre189_1Tr</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1461445746</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1461445748</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>A788673939</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2023/3/23</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2023/4/13</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>RK_RafaelKraft</t>
+        </is>
+      </c>
+      <c r="T41">
+        <f>HYPERLINK("https://drive.google.com/file/d/1WWRwENtOBD7ImV8yBVTaCmOJbQHhuPZr/view?usp=share_link","2023.04.13_Altice(MEO)_RK_Alexandre189_1Tr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 788673939 (1).PDF</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HC_Mouzinho213_1B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1423719341</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>A788359264</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2023/3/20</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2023/4/11</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>HC_HongChung</t>
+        </is>
+      </c>
+      <c r="T42">
+        <f>HYPERLINK("https://drive.google.com/file/d/1kuAYPp8reRzdbgu9GAYgRyt5DzoRBl1h/view?usp=share_link","2023.04.11_Altice(MEO)_HC_Mouzinho213_1B.pdf")</f>
+        <v/>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 788359264.PDF</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MB_Tras156_3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO_RATEIO</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1419930859</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>A788101248</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T43">
+        <f>HYPERLINK("https://drive.google.com/file/d/1g8pRg_PUPRxHsN5c0RkWx7I5dHhYsRgQ/view?usp=share_link","2023.03.17_Altice(MEO)_MB_Tras156_3.pdf")</f>
+        <v/>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_ALTICE_MARCO_3_FT_A_788101248.PDF</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MB_Tras156_2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO_RATEIO</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1419930859</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>A788101248</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T44">
+        <f>HYPERLINK("https://drive.google.com/file/d/1IWq89v3EC37ilHksjlLjLgLuAReWiWbw/view?usp=share_link","2023.03.17_Altice(MEO)_MB_Tras156_2.pdf")</f>
+        <v/>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_ALTICE_MARCO_3_FT_A_788101248.PDF</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MB_Tras156_1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO_RATEIO</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1448930852</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>A788101249</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T45">
+        <f>HYPERLINK("https://drive.google.com/file/d/1tkVMO2H7tUgxcH03I8YaRq69bO8dMeFj/view?usp=share_link","2023.03.17_Altice(MEO)_MB_Tras156_1.pdf")</f>
+        <v/>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA ALTICE_MARCO_1_FT_A_788101249.PDF</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MB_Tras156_RC</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO_RATEIO</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1448930852</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>A788101249</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2023/3/17</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2023/4/5</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>MB_MarcoBezelga</t>
+        </is>
+      </c>
+      <c r="T46">
+        <f>HYPERLINK("https://drive.google.com/file/d/14kdLS26zqKZv7Tfq0O--WhJ5jZHMZwaR/view?usp=share_link","2023.03.17_Altice(MEO)_MB_Tras156_RC.pdf")</f>
+        <v/>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA ALTICE_MARCO_1_FT_A_788101249.PDF</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CK_Bonjardim661_1Fr</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>312141658</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>101/052470401</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2023/3/1 ~ 2023/3/31</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2023/04/05</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2023/4/28</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>CK_CarlosKlein</t>
+        </is>
+      </c>
+      <c r="T47">
+        <f>HYPERLINK("https://drive.google.com/file/d/1REEFqzsdQx-oNVWAnbZjbw3wZ9_hYz4i/view?usp=share_link","2023.04.28_Vodafone_CK_Bonjardim661_1Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_20230401.PDF</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2023/05/16.19:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AD_Alexandre233_2Fr</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1446140836</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1456140830</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>A788673938</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2023/3</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2023/3/1</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2023/3/31</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2023/3/23</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2023/4/13</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>AD_AlessiaDiDio</t>
+        </is>
+      </c>
+      <c r="T48">
+        <f>HYPERLINK("https://drive.google.com/file/d/1Uqfm_r_a-79H8We9kYGtxZ1ucL4DKfnN/view?usp=share_link","2023.04.13_Altice(MEO)_AD_Alexandre233_2Fr.pdf")</f>
+        <v/>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT A 788673938 (1).PDF</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2023/05/17.09:27:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="560" windowWidth="25600" windowHeight="14640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +48,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +73,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V576"/>
+  <dimension ref="A1:V656"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="A634" sqref="A634:XFD636"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -54911,10 +54922,6 @@
           <t>160805226546</t>
         </is>
       </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
       <c r="M575" t="inlineStr">
         <is>
           <t>178005345762</t>
@@ -55010,8 +55017,6 @@
           <t>4140129</t>
         </is>
       </c>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>206795</t>
@@ -55063,6 +55068,7588 @@
       <c r="V576" t="inlineStr">
         <is>
           <t>2023/08/02.06:48:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>HM_Martires45_RCTr</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>5048941</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>4212916</t>
+        </is>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>745237</t>
+        </is>
+      </c>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>230402709040219</t>
+        </is>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>2023/03/11 ~ 2023/04/14</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>2023/03/11</t>
+        </is>
+      </c>
+      <c r="P577" t="inlineStr">
+        <is>
+          <t>2023/04/14</t>
+        </is>
+      </c>
+      <c r="Q577" t="inlineStr">
+        <is>
+          <t>2023/4/18</t>
+        </is>
+      </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>2023/5/03</t>
+        </is>
+      </c>
+      <c r="S577" t="n">
+        <v>77.61</v>
+      </c>
+      <c r="T577" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1DrIGXxUZjrZVk8pKzT55V-QyyIL9KkaB/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U577" t="inlineStr">
+        <is>
+          <t>2023_07_31_21_50_52_591_from_2023_05_03_AGUAS_HM_MARTIRES45.PDF</t>
+        </is>
+      </c>
+      <c r="V577" t="inlineStr">
+        <is>
+          <t>2023/08/04.08:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>CF_Bainharia117_3</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>4987192</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>4177430</t>
+        </is>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>36440</t>
+        </is>
+      </c>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>230602709007577</t>
+        </is>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>2023/05/10 ~ 2023/06/05</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>2023/05/10</t>
+        </is>
+      </c>
+      <c r="P578" t="inlineStr">
+        <is>
+          <t>2023/06/05</t>
+        </is>
+      </c>
+      <c r="Q578" t="inlineStr">
+        <is>
+          <t>2023/6/05</t>
+        </is>
+      </c>
+      <c r="R578" t="inlineStr">
+        <is>
+          <t>2023/6/20</t>
+        </is>
+      </c>
+      <c r="S578" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="T578" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1doOVdMXPpuJFpL5CmPEyrqAN7GQdf8rw/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U578" t="inlineStr">
+        <is>
+          <t>2023_07_31_19_58_27_102_from_2023_06_20_CF_BAINHARIA117_3.PDF</t>
+        </is>
+      </c>
+      <c r="V578" t="inlineStr">
+        <is>
+          <t>2023/08/04.08:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>HM_Martires45_RCTr</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>5048941</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>4212916</t>
+        </is>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>745237</t>
+        </is>
+      </c>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>230502709025954</t>
+        </is>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>2023/04/15 ~ 2023/05/11</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>2023/04/15</t>
+        </is>
+      </c>
+      <c r="P579" t="inlineStr">
+        <is>
+          <t>2023/05/11</t>
+        </is>
+      </c>
+      <c r="Q579" t="inlineStr">
+        <is>
+          <t>2023/5/11</t>
+        </is>
+      </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>2023/5/26</t>
+        </is>
+      </c>
+      <c r="S579" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="T579" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1zfvuELHczmspv1OetxwZ6FmgyzDIDiTw/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U579" t="inlineStr">
+        <is>
+          <t>2023_07_31_21_50_52_590_from_2023_05_26_AGUAS_HM_MARTIRES45.PDF</t>
+        </is>
+      </c>
+      <c r="V579" t="inlineStr">
+        <is>
+          <t>2023/08/04.08:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>PM_Cedofeita68_3Fr</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>313695986</t>
+        </is>
+      </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>101/058398053</t>
+        </is>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>2023/6/23 ~ 2023/7/22</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>2023/6/23</t>
+        </is>
+      </c>
+      <c r="P580" t="inlineStr">
+        <is>
+          <t>2023/7/22</t>
+        </is>
+      </c>
+      <c r="Q580" t="inlineStr">
+        <is>
+          <t>2023/07/27</t>
+        </is>
+      </c>
+      <c r="R580" t="inlineStr">
+        <is>
+          <t>2023/8/18</t>
+        </is>
+      </c>
+      <c r="S580" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="T580" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WPD0U6aAE4dVSd1L3muCuV7NNkW2pOwe/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U580" t="inlineStr">
+        <is>
+          <t>2023_08_02_10_26_49_290_from_FATURA_20230723.PDF</t>
+        </is>
+      </c>
+      <c r="V580" t="inlineStr">
+        <is>
+          <t>2023/08/04.08:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>LV_Loule235_1D</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>160804828893</t>
+        </is>
+      </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>188005127430</t>
+        </is>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>2023/7/1 ~ 2023/7/31</t>
+        </is>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>2023/7/1</t>
+        </is>
+      </c>
+      <c r="P581" t="inlineStr">
+        <is>
+          <t>2023/7/31</t>
+        </is>
+      </c>
+      <c r="Q581" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="R581" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S581" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="T581" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1rgCHbiGeCj3Wvd-UM4U_B5Ga9AYqS3Gc/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U581" t="inlineStr">
+        <is>
+          <t>2023_08_04_13_44_28_590_from_188005127430.PDF</t>
+        </is>
+      </c>
+      <c r="V581" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>KC_Pia24A_RCEs</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>160805301004</t>
+        </is>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>204004659853</t>
+        </is>
+      </c>
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>2023/7/4 ~ 2023/8/3</t>
+        </is>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>2023/7/4</t>
+        </is>
+      </c>
+      <c r="P582" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="Q582" t="inlineStr">
+        <is>
+          <t>2023/8/4</t>
+        </is>
+      </c>
+      <c r="R582" t="inlineStr">
+        <is>
+          <t>2023/8/28</t>
+        </is>
+      </c>
+      <c r="S582" t="n">
+        <v>85.06</v>
+      </c>
+      <c r="T582" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jB58j26ZHyjpHG57AcbYcqDoFXVPHNSp/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U582" t="inlineStr">
+        <is>
+          <t>2023_08_05_10_34_17_686_from_204004659853.PDF</t>
+        </is>
+      </c>
+      <c r="V582" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>JC_Tomas896_2Dr</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>160805868415</t>
+        </is>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>226001728168</t>
+        </is>
+      </c>
+      <c r="N583" t="inlineStr">
+        <is>
+          <t>2023/7/3 ~ 2023/8/2</t>
+        </is>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>2023/7/3</t>
+        </is>
+      </c>
+      <c r="P583" t="inlineStr">
+        <is>
+          <t>2023/8/2</t>
+        </is>
+      </c>
+      <c r="Q583" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="R583" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S583" t="n">
+        <v>54.42</v>
+      </c>
+      <c r="T583" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Hd3TR14prFUpshME-ugGhYiKdMoxMNQ4/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U583" t="inlineStr">
+        <is>
+          <t>2023_08_04_19_37_38_48_from_226001728168.PDF</t>
+        </is>
+      </c>
+      <c r="V583" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>FN_Pilar22_RCB</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>160805964090</t>
+        </is>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>176005350987</t>
+        </is>
+      </c>
+      <c r="N584" t="inlineStr">
+        <is>
+          <t>2023/7/2 ~ 2023/8/1</t>
+        </is>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>2023/7/2</t>
+        </is>
+      </c>
+      <c r="P584" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="Q584" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="R584" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S584" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="T584" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1AugYwWRz8Iv-Kppa_MyVIu2yjyP9Sqvo/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U584" t="inlineStr">
+        <is>
+          <t>2023_08_04_13_36_16_420_from_176005350987.PDF</t>
+        </is>
+      </c>
+      <c r="V584" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>AV_Guimaraes80_5</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>160805788701</t>
+        </is>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>200004820900</t>
+        </is>
+      </c>
+      <c r="N585" t="inlineStr">
+        <is>
+          <t>2023/7/1 ~ 2023/7/31</t>
+        </is>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>2023/7/1</t>
+        </is>
+      </c>
+      <c r="P585" t="inlineStr">
+        <is>
+          <t>2023/7/31</t>
+        </is>
+      </c>
+      <c r="Q585" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S585" t="n">
+        <v>125.17</v>
+      </c>
+      <c r="T585" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CDmkNITz7MUsySG9FcMnyPd0cwqzB2fz/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U585" t="inlineStr">
+        <is>
+          <t>2023_08_04_13_39_47_273_from_200004820900.PDF</t>
+        </is>
+      </c>
+      <c r="V585" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>1493910</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>308003403</t>
+        </is>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>FT0001/126899923</t>
+        </is>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>2023/7/01 ~ 2023/8/01</t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>2023/7/01</t>
+        </is>
+      </c>
+      <c r="P586" t="inlineStr">
+        <is>
+          <t>2023/8/01</t>
+        </is>
+      </c>
+      <c r="Q586" t="inlineStr">
+        <is>
+          <t>2023/8/05</t>
+        </is>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>2023/8/28</t>
+        </is>
+      </c>
+      <c r="S586" t="n">
+        <v>88.53</v>
+      </c>
+      <c r="T586" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1DKP5F12xhMsb171_YqdS5hTK5ZF-ER8w/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U586" t="inlineStr">
+        <is>
+          <t>2023_08_07_00_15_08_182_from_BB_804672500961.PDF</t>
+        </is>
+      </c>
+      <c r="V586" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>RO_Bombarda10_1O</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>1487659</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>307734862</t>
+        </is>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>FT0001/126876999</t>
+        </is>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>2023/6/30 ~ 2023/7/31</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>2023/6/30</t>
+        </is>
+      </c>
+      <c r="P587" t="inlineStr">
+        <is>
+          <t>2023/7/31</t>
+        </is>
+      </c>
+      <c r="Q587" t="inlineStr">
+        <is>
+          <t>2023/8/04</t>
+        </is>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S587" t="n">
+        <v>56.43</v>
+      </c>
+      <c r="T587" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OH_Yarmbu1J1-GMq0E94VpG-h9anbouM/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U587" t="inlineStr">
+        <is>
+          <t>2023_08_05_20_35_43_401_from_BB_372011445300.PDF</t>
+        </is>
+      </c>
+      <c r="V587" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>HM_Anibal80_2Fr</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>1555817</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>307979288</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>FT0001/126855368</t>
+        </is>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>2023/7/01 ~ 2023/7/29</t>
+        </is>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>2023/7/01</t>
+        </is>
+      </c>
+      <c r="P588" t="inlineStr">
+        <is>
+          <t>2023/7/29</t>
+        </is>
+      </c>
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>2023/8/02</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>2023/8/23</t>
+        </is>
+      </c>
+      <c r="S588" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="T588" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1wBVT09EsPvC3nl5YhmEhEfWDA8Pj8vGJ/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U588" t="inlineStr">
+        <is>
+          <t>2023_08_04_21_08_01_792_from_BB_622088222209.PDF</t>
+        </is>
+      </c>
+      <c r="V588" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>LS_Bessa641_4Dr</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>4967688</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>4166519</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>160170</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>230802709004231</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>2023/07/01 ~ 2023/07/29</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>2023/07/01</t>
+        </is>
+      </c>
+      <c r="P589" t="inlineStr">
+        <is>
+          <t>2023/07/29</t>
+        </is>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>2023/8/01</t>
+        </is>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>2023/8/16</t>
+        </is>
+      </c>
+      <c r="S589" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="T589" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1s_YDbVXSEZ-7AEj9Aqzgu8ucY3e537NV/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U589" t="inlineStr">
+        <is>
+          <t>2023_08_05_05_13_58_171_from_985.AR.DP.145756957.PDF</t>
+        </is>
+      </c>
+      <c r="V589" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>5025861</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>4204002</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>10018180</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>230802709002276</t>
+        </is>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>2023/05/06 ~ 2023/07/24</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>2023/05/06</t>
+        </is>
+      </c>
+      <c r="P590" t="inlineStr">
+        <is>
+          <t>2023/07/24</t>
+        </is>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>2023/8/01</t>
+        </is>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>2023/8/16</t>
+        </is>
+      </c>
+      <c r="S590" t="n">
+        <v>142.26</v>
+      </c>
+      <c r="T590" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-JcKiVairMplTayFSEp9YWH42aNHPZTg/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U590" t="inlineStr">
+        <is>
+          <t>2023_08_05_01_35_51_841_from_985.AR.DP.145755002.PDF</t>
+        </is>
+      </c>
+      <c r="V590" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>ZW_DJoao910_1G</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>5078335</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>10023364</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>230802709002279</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>2023/06/17 ~ 2023/07/28</t>
+        </is>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>2023/06/17</t>
+        </is>
+      </c>
+      <c r="P591" t="inlineStr">
+        <is>
+          <t>2023/07/28</t>
+        </is>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>2023/8/01</t>
+        </is>
+      </c>
+      <c r="R591" t="inlineStr">
+        <is>
+          <t>2023/8/16</t>
+        </is>
+      </c>
+      <c r="S591" t="n">
+        <v>112.28</v>
+      </c>
+      <c r="T591" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_3bPBPUHhw0kzrpsrUrcvgb9gzlyfAxa/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U591" t="inlineStr">
+        <is>
+          <t>2023_08_05_00_42_37_126_from_985.AR.DP.145755005.PDF</t>
+        </is>
+      </c>
+      <c r="V591" t="inlineStr">
+        <is>
+          <t>2023/08/07.07:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>RM_Victor104_J</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>160805774941</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>210004355820</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>2023/7/2 ~ 2023/8/1</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>2023/7/2</t>
+        </is>
+      </c>
+      <c r="P592" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>2023/8/8</t>
+        </is>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S592" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="T592" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1vp9VV8PfXP8GZ7lIHJRBHB_-4u5sXvDj/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U592" t="inlineStr">
+        <is>
+          <t>2023_08_08_10_40_36_338_from_210004355820.PDF</t>
+        </is>
+      </c>
+      <c r="V592" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>JD_GERAL</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>160805613846</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>222001796620</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>2023/7/6 ~ 2023/8/5</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>2023/7/6</t>
+        </is>
+      </c>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>2023/8/8</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S593" t="n">
+        <v>80.03</v>
+      </c>
+      <c r="T593" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1tyelODCaUo3mSR_3tSIKkERg1TszYY77/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U593" t="inlineStr">
+        <is>
+          <t>2023_08_08_13_35_53_26_from_222001796620.PDF</t>
+        </is>
+      </c>
+      <c r="V593" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>LF_Conceicao67_23</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>160805775715</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>238001310227</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>2023/7/4 ~ 2023/8/3</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>2023/7/4</t>
+        </is>
+      </c>
+      <c r="P594" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>2023/8/7</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>2023/8/29</t>
+        </is>
+      </c>
+      <c r="S594" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="T594" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hkcjXKElSeYFGCHFiFjOttTmm4kQJiK5/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U594" t="inlineStr">
+        <is>
+          <t>2023_08_07_16_41_23_704_from_238001310227.PDF</t>
+        </is>
+      </c>
+      <c r="V594" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>JR_Loios78_4Tr</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>160805565693</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>222001795098</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>2023/7/4 ~ 2023/8/3</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>2023/7/4</t>
+        </is>
+      </c>
+      <c r="P595" t="inlineStr">
+        <is>
+          <t>2023/8/3</t>
+        </is>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>2023/8/7</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>2023/8/29</t>
+        </is>
+      </c>
+      <c r="S595" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="T595" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ECd-RvZJR2lgMPVRI9YeK66iFlrNWB8k/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U595" t="inlineStr">
+        <is>
+          <t>2023_08_07_19_51_36_955_from_222001795098.PDF</t>
+        </is>
+      </c>
+      <c r="V595" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>ZW_DJoao910_1G</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>160806101993</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>240001131261</t>
+        </is>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>2023/7/8 ~ 2023/7/31</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>2023/7/8</t>
+        </is>
+      </c>
+      <c r="P596" t="inlineStr">
+        <is>
+          <t>2023/7/31</t>
+        </is>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>2023/8/7</t>
+        </is>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>2023/8/29</t>
+        </is>
+      </c>
+      <c r="S596" t="n">
+        <v>46.96</v>
+      </c>
+      <c r="T596" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1erCX9_9om7ftYXM8cIwcVoaB3rzORK3k/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U596" t="inlineStr">
+        <is>
+          <t>2023_08_07_19_44_24_92_from_240001131261.PDF</t>
+        </is>
+      </c>
+      <c r="V596" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>FG_Torrinha36_2Es</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>160805964167</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>148005652611</t>
+        </is>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>2023/7/2 ~ 2023/8/1</t>
+        </is>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>2023/7/2</t>
+        </is>
+      </c>
+      <c r="P597" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>2023/8/8</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S597" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="T597" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10suAtwpHCSq3JLCpYefuHfxBSCdzmaXI/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U597" t="inlineStr">
+        <is>
+          <t>2023_08_08_10_42_24_338_from_148005652611.PDF</t>
+        </is>
+      </c>
+      <c r="V597" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>JB_Monteiro122_D</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>1520904</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>305731858</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>FT0001/126902674</t>
+        </is>
+      </c>
+      <c r="N598" t="inlineStr">
+        <is>
+          <t>2023/7/01 ~ 2023/8/02</t>
+        </is>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>2023/7/01</t>
+        </is>
+      </c>
+      <c r="P598" t="inlineStr">
+        <is>
+          <t>2023/8/02</t>
+        </is>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>2023/8/06</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>2023/8/28</t>
+        </is>
+      </c>
+      <c r="S598" t="n">
+        <v>82.84999999999999</v>
+      </c>
+      <c r="T598" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14zDMyMGSrzHjfhBndUYuzrPUAkJoPI9O/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U598" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_32_10_593_from_BB_108101501781.PDF</t>
+        </is>
+      </c>
+      <c r="V598" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_3</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO_RATEIO</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>1424424664</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>1424424667</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>FTA/797314725</t>
+        </is>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P599" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>2023/8/2</t>
+        </is>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>2023/8/24</t>
+        </is>
+      </c>
+      <c r="S599" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="T599" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1nM4Vm-T8eoALqbZI-FlIomInlLeYT55q/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U599" t="inlineStr">
+        <is>
+          <t>2023_08_07_07_27_16_575_from_FT_A_797314725.PDF</t>
+        </is>
+      </c>
+      <c r="V599" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_4</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO_RATEIO</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>1424424664</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>1424424667</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>FTA/797314725</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P600" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>2023/8/2</t>
+        </is>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>2023/8/24</t>
+        </is>
+      </c>
+      <c r="S600" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="T600" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1nM4Vm-T8eoALqbZI-FlIomInlLeYT55q/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U600" t="inlineStr">
+        <is>
+          <t>2023_08_07_07_27_16_575_from_FT_A_797314725.PDF</t>
+        </is>
+      </c>
+      <c r="V600" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>MS_Viterbo81_1Fr</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>1408034942</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>1440629301</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>A797424542</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P601" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R601" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S601" t="n">
+        <v>38.99</v>
+      </c>
+      <c r="T601" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WcFGO5gqe1kfE5sE4DHffjZcfh0sGXt4/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U601" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_58_301_from_FT_A_797424542.PDF</t>
+        </is>
+      </c>
+      <c r="V601" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>MS_Cedofeita245_3EsTr</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>1487140834</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>1440629301</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>A797424535</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P602" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q602" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R602" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S602" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="T602" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1C1IM3bbzIQiq0FLzYhfDsPX9e7KMMcgw/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U602" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_56_194_from_FT_A_797424535.PDF</t>
+        </is>
+      </c>
+      <c r="V602" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>DM_Cedofeita630_RCTr</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>1456741551</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>1456741554</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>A797424533</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P603" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R603" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S603" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="T603" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1rPsxsA42HY-JHKWg6EmZX0ikG2Aw2foN/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U603" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_56_577_from_FT_A_797424533.PDF</t>
+        </is>
+      </c>
+      <c r="V603" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>JM_Cedofeita245_2TrEs</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>1443041568</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>1437041392</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>A797424534</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P604" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S604" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="T604" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1PYWMgxF71L0rgvakWlqFFWeL7aRFQ-kZ/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U604" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_57_418_from_FT_A_797424534.PDF</t>
+        </is>
+      </c>
+      <c r="V604" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>HM_Martires45_RCTr</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>1404543405</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>1494741556</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>A797424539</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P605" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S605" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="T605" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/17NbvoSSoK74JO8DtWjZ9sgc6uw2fPQgK/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U605" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_17_03_210_from_FT_A_797424539.PDF</t>
+        </is>
+      </c>
+      <c r="V605" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>JH_Tras31_131</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>1428343402</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>1437238926</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>A797424543</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P606" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q606" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R606" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S606" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="T606" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1phm1kz6Naq-yuZICZFIEUceG0H1YUSEp/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U606" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_17_04_56_from_FT_A_797424543.PDF</t>
+        </is>
+      </c>
+      <c r="V606" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>1488439015</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>1437238926</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>A797424536</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P607" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R607" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S607" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="T607" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1wnVEeR4Br0BaxAf5PqbO1qb7rT6K-T9-/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U607" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_17_40_816_from_FT_A_797424536.PDF</t>
+        </is>
+      </c>
+      <c r="V607" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>DD_Alho8_1Es</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>1455247937</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>1455247939</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>FTA/797390897</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P608" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S608" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="T608" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1j7TbcqhOOFcLMuorOCx7f2m6--JzzmRF/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U608" t="inlineStr">
+        <is>
+          <t>2023_08_07_14_08_36_539_from_FT_A_797390897.PDF</t>
+        </is>
+      </c>
+      <c r="V608" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>CF_Bainharia117_3</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>1468429732</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>1419728541</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>A797424531</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P609" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S609" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="T609" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16xxinv2bRygpm7x8sHfNH5rRUadZjgXB/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U609" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_56_770_from_FT_A_797424531.PDF</t>
+        </is>
+      </c>
+      <c r="V609" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>HM_Anibal80_2Fr</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>1446647796</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>1494741556</t>
+        </is>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>A797424530</t>
+        </is>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P610" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q610" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R610" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S610" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="T610" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1SFkQ5HQgvYfKtl6kIHuWn5Wx8IQpXHki/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U610" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_56_711_from_FT_A_797424530.PDF</t>
+        </is>
+      </c>
+      <c r="V610" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>HM_Mouzinho85_3Tr</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>1438348213</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>1494741556</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>A797424540</t>
+        </is>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P611" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q611" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R611" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S611" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="T611" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1fSdhZQ7HL-6r0PiNGNOTP_4SfRG_tKoB/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U611" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_58_487_from_FT_A_797424540.PDF</t>
+        </is>
+      </c>
+      <c r="V611" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>LS_Bessa641_4Dr</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>1419430627</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>1483329303</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>A797424549</t>
+        </is>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P612" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q612" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R612" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S612" t="n">
+        <v>33.49</v>
+      </c>
+      <c r="T612" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1b40SaNjBV6zqe99Ju435cm5tcQ3gvuIP/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U612" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_17_00_670_from_FT_A_797424549.PDF</t>
+        </is>
+      </c>
+      <c r="V612" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>VL_Infante45_5P</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>1425932341</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>A797377684</t>
+        </is>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P613" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q613" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R613" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S613" t="n">
+        <v>33</v>
+      </c>
+      <c r="T613" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1e3vbhsjO91ow2oD-xcJMeynDwp_WZ3XU/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U613" t="inlineStr">
+        <is>
+          <t>2023_08_07_13_28_18_901_from_FT_A_797377684.PDF</t>
+        </is>
+      </c>
+      <c r="V613" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>TJ_Almada55_4DrTr</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>1437933954</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>A797377638</t>
+        </is>
+      </c>
+      <c r="N614" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P614" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q614" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R614" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S614" t="n">
+        <v>33</v>
+      </c>
+      <c r="T614" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/126GWm3S8O3UsnFGlOVPNBi2ApPLLzkBe/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U614" t="inlineStr">
+        <is>
+          <t>2023_08_07_13_54_25_468_from_FT_A_797377638.PDF</t>
+        </is>
+      </c>
+      <c r="V614" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>JR_Loios78_4Tr</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>1482030729</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>A797377685</t>
+        </is>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P615" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q615" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S615" t="n">
+        <v>33</v>
+      </c>
+      <c r="T615" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18VeuTR3TU3Vcs0QPvaruTMACUGD8DQYG/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U615" t="inlineStr">
+        <is>
+          <t>2023_08_07_14_41_37_97_from_FT_A_797377685.PDF</t>
+        </is>
+      </c>
+      <c r="V615" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>FG_Torrinha36_2Es</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>1496750777</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>A797377714</t>
+        </is>
+      </c>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P616" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S616" t="n">
+        <v>33</v>
+      </c>
+      <c r="T616" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1MWR5gdha9Xl45RoGK7vAOpIDPfz_QMn1/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U616" t="inlineStr">
+        <is>
+          <t>2023_08_07_17_21_21_539_from_FT_A_797377714.PDF</t>
+        </is>
+      </c>
+      <c r="V616" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>KC_Pia24A_RCEs</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>1415838073</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>A797378850</t>
+        </is>
+      </c>
+      <c r="N617" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P617" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S617" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="T617" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1xk8I6gQHs9fAmH0vjSrGD2_xj4UHlJEO/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U617" t="inlineStr">
+        <is>
+          <t>2023_08_07_13_12_30_246_from_FT_A_797378850.PDF</t>
+        </is>
+      </c>
+      <c r="V617" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>EG_Alcantara16_2Fr</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>1432726057</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>A797378812</t>
+        </is>
+      </c>
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P618" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S618" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="T618" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1cAQPKCtqZkyy-hVP3NFZI7uZkBy1MA0e/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U618" t="inlineStr">
+        <is>
+          <t>2023_08_07_13_28_30_488_from_FT_A_797378812.PDF</t>
+        </is>
+      </c>
+      <c r="V618" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>RM_Victor104_J</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>1490136235</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>A797377628</t>
+        </is>
+      </c>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P619" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S619" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="T619" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1O8k2L0qUwowK-o7KzUS1TUAvHZvc8CHD/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U619" t="inlineStr">
+        <is>
+          <t>2023_08_07_17_21_27_588_from_FT_A_797377628.PDF</t>
+        </is>
+      </c>
+      <c r="V619" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>JR_Mouzinho85_3Fr</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>1476544225</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>A797377695</t>
+        </is>
+      </c>
+      <c r="N620" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P620" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q620" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R620" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S620" t="n">
+        <v>30</v>
+      </c>
+      <c r="T620" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/12dh9e70hA_I0jDj_Yh1ZupPrPavUl7Bi/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U620" t="inlineStr">
+        <is>
+          <t>2023_08_07_14_41_38_351_from_FT_A_797377695.PDF</t>
+        </is>
+      </c>
+      <c r="V620" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>LV_Loule235_1D</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>1430527938</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>1481920841</t>
+        </is>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>A797424524</t>
+        </is>
+      </c>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P621" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q621" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R621" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S621" t="n">
+        <v>30</v>
+      </c>
+      <c r="T621" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1oCU-N1-TSZjJEpCDYsXy3dTEzx-m_fMe/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U621" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_54_743_from_FT_A_797424524.PDF</t>
+        </is>
+      </c>
+      <c r="V621" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>AV_Guimaraes80_5</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>1489046711</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>A797377571</t>
+        </is>
+      </c>
+      <c r="N622" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O622" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P622" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q622" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R622" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S622" t="n">
+        <v>30</v>
+      </c>
+      <c r="T622" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-5Vsy1MAOFjJvMfImmmsz5JRaZhKGkYP/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U622" t="inlineStr">
+        <is>
+          <t>2023_08_07_17_21_21_529_from_FT_A_797377571.PDF</t>
+        </is>
+      </c>
+      <c r="V622" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>SM_Silveira29_1Fr</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>313855669</t>
+        </is>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>101/041074633</t>
+        </is>
+      </c>
+      <c r="N623" t="inlineStr">
+        <is>
+          <t>2022/7/9 ~ 2022/8/8</t>
+        </is>
+      </c>
+      <c r="O623" t="inlineStr">
+        <is>
+          <t>2022/7/9</t>
+        </is>
+      </c>
+      <c r="P623" t="inlineStr">
+        <is>
+          <t>2022/8/8</t>
+        </is>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>2022/08/13</t>
+        </is>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>2022/9/7</t>
+        </is>
+      </c>
+      <c r="S623" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="T623" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1rQR0NrnZLM28RYRX8_19R_m9A_Ugmf2I/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U623" t="inlineStr">
+        <is>
+          <t>2023_08_07_17_13_03_486_from_VODAFONE_20220908_313855669.PDF</t>
+        </is>
+      </c>
+      <c r="V623" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>SM_Silveira29_1Fr</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>313855669</t>
+        </is>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>101/038141541</t>
+        </is>
+      </c>
+      <c r="N624" t="inlineStr">
+        <is>
+          <t>2022/5/9 ~ 2022/6/8</t>
+        </is>
+      </c>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>2022/5/9</t>
+        </is>
+      </c>
+      <c r="P624" t="inlineStr">
+        <is>
+          <t>2022/6/8</t>
+        </is>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>2022/06/13</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>2022/7/6</t>
+        </is>
+      </c>
+      <c r="S624" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="T624" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OqOYEVTecrysSgIlGkfYg-R95sTZPUKY/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U624" t="inlineStr">
+        <is>
+          <t>2023_08_07_17_55_30_623_from_07-22_20220722_313855669.PDF</t>
+        </is>
+      </c>
+      <c r="V624" t="inlineStr">
+        <is>
+          <t>2023/08/08.10:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_3</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>160804653875</t>
+        </is>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>210004357410</t>
+        </is>
+      </c>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t>2023/7/7 ~ 2023/8/6</t>
+        </is>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>2023/7/7</t>
+        </is>
+      </c>
+      <c r="P625" t="inlineStr">
+        <is>
+          <t>2023/8/6</t>
+        </is>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>2023/8/8</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S625" t="n">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="T625" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1MZ0X7cjyj4Yd956OdnTj7vRzL1iXU4uw/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U625" t="inlineStr">
+        <is>
+          <t>2023_08_09_17_06_54_148_from_210004357410.PDF</t>
+        </is>
+      </c>
+      <c r="V625" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>PM_Cedofeita68_3Fr</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>160805273827</t>
+        </is>
+      </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>232001621227</t>
+        </is>
+      </c>
+      <c r="N626" t="inlineStr">
+        <is>
+          <t>2023/7/8 ~ 2023/8/7</t>
+        </is>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>2023/7/8</t>
+        </is>
+      </c>
+      <c r="P626" t="inlineStr">
+        <is>
+          <t>2023/8/7</t>
+        </is>
+      </c>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>2023/8/9</t>
+        </is>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="S626" t="n">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="T626" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1x-JRWVHALeRg4eVRShekwDM3XkIX3lqt/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U626" t="inlineStr">
+        <is>
+          <t>2023_08_10_07_18_32_656_from_232001621227.PDF</t>
+        </is>
+      </c>
+      <c r="V626" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>MR_Olival192_RC</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>160804222895</t>
+        </is>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>186005143156</t>
+        </is>
+      </c>
+      <c r="N627" t="inlineStr">
+        <is>
+          <t>2023/6/6 ~ 2023/8/5</t>
+        </is>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>2023/6/6</t>
+        </is>
+      </c>
+      <c r="P627" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="Q627" t="inlineStr">
+        <is>
+          <t>2023/8/7</t>
+        </is>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>2023/8/29</t>
+        </is>
+      </c>
+      <c r="S627" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="T627" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WBkZH_MMM7YnFoizczIg0xcBU0cqO-rl/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U627" t="inlineStr">
+        <is>
+          <t>2023_08_07_16_49_07_14_from_186005143156.PDF</t>
+        </is>
+      </c>
+      <c r="V627" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_4</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>160804653729</t>
+        </is>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>210004357409</t>
+        </is>
+      </c>
+      <c r="N628" t="inlineStr">
+        <is>
+          <t>2023/7/7 ~ 2023/8/6</t>
+        </is>
+      </c>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>2023/7/7</t>
+        </is>
+      </c>
+      <c r="P628" t="inlineStr">
+        <is>
+          <t>2023/8/6</t>
+        </is>
+      </c>
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>2023/8/8</t>
+        </is>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S628" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="T628" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10rYPzynLGt2K2OD9YAf0Injxv4qUP5ON/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U628" t="inlineStr">
+        <is>
+          <t>2023_08_09_17_07_45_532_from_210004357409.PDF</t>
+        </is>
+      </c>
+      <c r="V628" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>MS_Viterbo81_1Fr</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>4997875</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>4178288</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>10011395</t>
+        </is>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>230802709010961</t>
+        </is>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>2023/07/08 ~ 2023/08/03</t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>2023/07/08</t>
+        </is>
+      </c>
+      <c r="P629" t="inlineStr">
+        <is>
+          <t>2023/08/03</t>
+        </is>
+      </c>
+      <c r="Q629" t="inlineStr">
+        <is>
+          <t>2023/8/03</t>
+        </is>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>2023/8/18</t>
+        </is>
+      </c>
+      <c r="S629" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="T629" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ozu55IxpA6DNgl4JbBOZjAqN8ck1ma2P/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U629" t="inlineStr">
+        <is>
+          <t>2023_08_08_22_34_15_274_from_985.AR.DP.145785681.PDF</t>
+        </is>
+      </c>
+      <c r="V629" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>LF_Mercadores83_1Tr</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>5060752</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>4223046</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>10020345</t>
+        </is>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>230802709014754</t>
+        </is>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>2023/07/08 ~ 2023/08/04</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>2023/07/08</t>
+        </is>
+      </c>
+      <c r="P630" t="inlineStr">
+        <is>
+          <t>2023/08/04</t>
+        </is>
+      </c>
+      <c r="Q630" t="inlineStr">
+        <is>
+          <t>2023/8/04</t>
+        </is>
+      </c>
+      <c r="R630" t="inlineStr">
+        <is>
+          <t>2023/8/19</t>
+        </is>
+      </c>
+      <c r="S630" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="T630" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dk2ihgJdSRbfEeXBoqTdtvW8-1M_srVY/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U630" t="inlineStr">
+        <is>
+          <t>2023_08_10_03_56_03_319_from_985.AR.DP.145802808.PDF</t>
+        </is>
+      </c>
+      <c r="V630" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>KC_Pia24A_RCEs</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>29985862</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>650684</t>
+        </is>
+      </c>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>20230/01827429</t>
+        </is>
+      </c>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>2023/07/03~2023/08/02</t>
+        </is>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>2023/07/03</t>
+        </is>
+      </c>
+      <c r="P631" t="inlineStr">
+        <is>
+          <t>2023/08/02</t>
+        </is>
+      </c>
+      <c r="Q631" t="inlineStr">
+        <is>
+          <t>2023/08/04</t>
+        </is>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>2023/08/29</t>
+        </is>
+      </c>
+      <c r="S631" t="n">
+        <v>83.11</v>
+      </c>
+      <c r="T631" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1NEdm8J-RK1b-R8rPBw15_OYluUD2ecqh/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U631" t="inlineStr">
+        <is>
+          <t>2023_08_09_21_18_40_736_from_202301827429.PDF</t>
+        </is>
+      </c>
+      <c r="V631" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>HM_Almada551_43</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>1463553668</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>1494741556</t>
+        </is>
+      </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>A797424529</t>
+        </is>
+      </c>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P632" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q632" t="inlineStr">
+        <is>
+          <t>2023/8/5</t>
+        </is>
+      </c>
+      <c r="R632" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="S632" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T632" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1pvbWF3VoQwiN44K3DPrzNPncSBssF-Bk/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U632" t="inlineStr">
+        <is>
+          <t>2023_08_07_15_16_55_89_from_FT_A_797424529.PDF</t>
+        </is>
+      </c>
+      <c r="V632" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>SM_Silveira29_1Fr</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>313855669</t>
+        </is>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>101/056123078</t>
+        </is>
+      </c>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>2023/5/9 ~ 2023/6/8</t>
+        </is>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>2023/5/9</t>
+        </is>
+      </c>
+      <c r="P633" t="inlineStr">
+        <is>
+          <t>2023/6/8</t>
+        </is>
+      </c>
+      <c r="Q633" t="inlineStr">
+        <is>
+          <t>2023/06/13</t>
+        </is>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>2023/7/6</t>
+        </is>
+      </c>
+      <c r="S633" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="T633" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-qb2DlidWEwmtGJ6CvanF5z22nPEGskG/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U633" t="inlineStr">
+        <is>
+          <t>2023_08_08_13_38_32_388_from_JULHO_VODAFONE_DOCUMENTO_LEGAL_20230719_313855669.PDF</t>
+        </is>
+      </c>
+      <c r="V633" t="inlineStr">
+        <is>
+          <t>2023/08/10.16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>ES_Felix698_1L</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>160805942422</t>
+        </is>
+      </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>108007679308</t>
+        </is>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>2023/7/10 ~ 2023/8/9</t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>2023/7/10</t>
+        </is>
+      </c>
+      <c r="P634" t="inlineStr">
+        <is>
+          <t>2023/8/9</t>
+        </is>
+      </c>
+      <c r="Q634" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>2023/9/4</t>
+        </is>
+      </c>
+      <c r="S634" t="n">
+        <v>80.81999999999999</v>
+      </c>
+      <c r="T634" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1TlOhsrP5PBEYmypLuYYVDROAT7kk0gJO/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U634" t="inlineStr">
+        <is>
+          <t>2023_08_12_12_37_37_460_from_108007679308.PDF</t>
+        </is>
+      </c>
+      <c r="V634" t="inlineStr">
+        <is>
+          <t>2023/08/12.09:33:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>RK_Alexandre189_1Tr</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>5060112</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>4227318</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>55401</t>
+        </is>
+      </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>230802709017508</t>
+        </is>
+      </c>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>2023/07/06 ~ 2023/08/07</t>
+        </is>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>2023/07/06</t>
+        </is>
+      </c>
+      <c r="P635" t="inlineStr">
+        <is>
+          <t>2023/08/07</t>
+        </is>
+      </c>
+      <c r="Q635" t="inlineStr">
+        <is>
+          <t>2023/8/07</t>
+        </is>
+      </c>
+      <c r="R635" t="inlineStr">
+        <is>
+          <t>2023/8/22</t>
+        </is>
+      </c>
+      <c r="S635" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="T635" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1peNlyrswwVo9UxRFQdqb8dSviT1-HEMr/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U635" t="inlineStr">
+        <is>
+          <t>2023_08_12_09_15_10_68_from_985.AR.DP.145820326.PDF</t>
+        </is>
+      </c>
+      <c r="V635" t="inlineStr">
+        <is>
+          <t>2023/08/12.09:33:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>AD_Alexandre233_2Fr</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>5025531</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>4203800</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>202088</t>
+        </is>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>230802709017229</t>
+        </is>
+      </c>
+      <c r="N636" t="inlineStr">
+        <is>
+          <t>2023/07/05 ~ 2023/08/07</t>
+        </is>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>2023/07/05</t>
+        </is>
+      </c>
+      <c r="P636" t="inlineStr">
+        <is>
+          <t>2023/08/07</t>
+        </is>
+      </c>
+      <c r="Q636" t="inlineStr">
+        <is>
+          <t>2023/8/07</t>
+        </is>
+      </c>
+      <c r="R636" t="inlineStr">
+        <is>
+          <t>2023/8/22</t>
+        </is>
+      </c>
+      <c r="S636" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="T636" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1eNH0Of2HeG4HbTQU9727nvHWRdnT4RU4/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U636" t="inlineStr">
+        <is>
+          <t>2023_08_12_09_10_46_392_from_985.AR.DP.145820047.PDF</t>
+        </is>
+      </c>
+      <c r="V636" t="inlineStr">
+        <is>
+          <t>2023/08/12.09:33:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>CK_Bonjardim661_1Fr</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>312141658</t>
+        </is>
+      </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>101/058584593</t>
+        </is>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>2023/7/1 ~ 2023/7/31</t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>2023/7/1</t>
+        </is>
+      </c>
+      <c r="P637" t="inlineStr">
+        <is>
+          <t>2023/7/31</t>
+        </is>
+      </c>
+      <c r="Q637" t="inlineStr">
+        <is>
+          <t>2023/08/05</t>
+        </is>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S637" t="n">
+        <v>30</v>
+      </c>
+      <c r="T637" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13uYYaqA7LHPaF6q9ZE67IzgsG9zYdaeW/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U637" t="inlineStr">
+        <is>
+          <t>2023_08_12_12_57_45_951_from_FATURA_20230801.PDF</t>
+        </is>
+      </c>
+      <c r="V637" t="inlineStr">
+        <is>
+          <t>2023/08/14.07:11:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>LP_Cabral372_1Fr</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>160806059661</t>
+        </is>
+      </c>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>196004944641</t>
+        </is>
+      </c>
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>2023/7/12 ~ 2023/8/11</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>2023/7/12</t>
+        </is>
+      </c>
+      <c r="P638" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="Q638" t="inlineStr">
+        <is>
+          <t>2023/8/13</t>
+        </is>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>2023/9/4</t>
+        </is>
+      </c>
+      <c r="S638" t="n">
+        <v>78.52</v>
+      </c>
+      <c r="T638" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Kn3Q5ppBz-hb3RPCZ2s4BCcCOlGyfxdz/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U638" t="inlineStr">
+        <is>
+          <t>_2023_08_14_12_41_44_213_from_196004944641.PDF</t>
+        </is>
+      </c>
+      <c r="V638" t="inlineStr">
+        <is>
+          <t>2023/08/18.10:43:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>PC_Bonfim482_1</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>160806043436</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>106007741685</t>
+        </is>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>2023/7/10 ~ 2023/8/9</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>2023/7/10</t>
+        </is>
+      </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>2023/8/9</t>
+        </is>
+      </c>
+      <c r="Q639" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>2023/9/4</t>
+        </is>
+      </c>
+      <c r="S639" t="n">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="T639" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1i683PgXa-p2ZcvvnG0iXgCorTrq3STgE/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U639" t="inlineStr">
+        <is>
+          <t>2023_08_14_18_48_46_513_from_106007741685.PDF</t>
+        </is>
+      </c>
+      <c r="V639" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>CF_1Herculano21</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>160804960767</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>102007866793</t>
+        </is>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>2023/7/15 ~ 2023/8/14</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>2023/7/15</t>
+        </is>
+      </c>
+      <c r="P640" t="inlineStr">
+        <is>
+          <t>2023/8/14</t>
+        </is>
+      </c>
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>2023/8/16</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>2023/9/6</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="T640" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1SDc2iNH5fBSezMc5NNJ5pwz39ZP3NsYO/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U640" t="inlineStr">
+        <is>
+          <t>2023_08_17_07_35_24_927_from_102007866793.PDF</t>
+        </is>
+      </c>
+      <c r="V640" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>RK_Alexandre189_1Tr</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>160805759941</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>222001803047</t>
+        </is>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>2023/7/11 ~ 2023/8/10</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>2023/7/11</t>
+        </is>
+      </c>
+      <c r="P641" t="inlineStr">
+        <is>
+          <t>2023/8/10</t>
+        </is>
+      </c>
+      <c r="Q641" t="inlineStr">
+        <is>
+          <t>2023/8/13</t>
+        </is>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>2023/9/4</t>
+        </is>
+      </c>
+      <c r="S641" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="T641" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1vDRo3rpSi2Vt4EwYOlWTIrUBkh-BfQNP/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U641" t="inlineStr">
+        <is>
+          <t>2023_08_14_11_44_02_354_from_222001803047.PDF</t>
+        </is>
+      </c>
+      <c r="V641" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>CF_1Herculano17</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>160805217491</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>122006275684</t>
+        </is>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>2023/7/14 ~ 2023/8/13</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>2023/7/14</t>
+        </is>
+      </c>
+      <c r="P642" t="inlineStr">
+        <is>
+          <t>2023/8/13</t>
+        </is>
+      </c>
+      <c r="Q642" t="inlineStr">
+        <is>
+          <t>2023/8/16</t>
+        </is>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>2023/9/6</t>
+        </is>
+      </c>
+      <c r="S642" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="T642" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1SgGMpM2-dMGlKz958zw3tlr8uXj1OXMc/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U642" t="inlineStr">
+        <is>
+          <t>2023_08_17_07_26_11_526_from_122006275684.PDF</t>
+        </is>
+      </c>
+      <c r="V642" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>MR_Santana202_RC</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>160804363243</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>136006018306</t>
+        </is>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>2023/7/1 ~ 2023/7/30</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>2023/7/1</t>
+        </is>
+      </c>
+      <c r="P643" t="inlineStr">
+        <is>
+          <t>2023/7/30</t>
+        </is>
+      </c>
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>2023/8/23</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
+        <v>47.11</v>
+      </c>
+      <c r="T643" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Kn6Ir73BYQOVNuKIUkiT8W3ShMLdkcnb/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U643" t="inlineStr">
+        <is>
+          <t>2023_08_14_18_55_48_238_from_136006018306.PDF</t>
+        </is>
+      </c>
+      <c r="V643" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>HM_Mouzinho85_3Tr</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>160805827525</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>194005031695</t>
+        </is>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>2023/7/16 ~ 2023/8/15</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>2023/7/16</t>
+        </is>
+      </c>
+      <c r="P644" t="inlineStr">
+        <is>
+          <t>2023/8/15</t>
+        </is>
+      </c>
+      <c r="Q644" t="inlineStr">
+        <is>
+          <t>2023/8/17</t>
+        </is>
+      </c>
+      <c r="R644" t="inlineStr">
+        <is>
+          <t>2023/9/7</t>
+        </is>
+      </c>
+      <c r="S644" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="T644" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1TmZScvY1H1ApOUW2Xebnqbv38Vngs46W/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U644" t="inlineStr">
+        <is>
+          <t>2023_08_18_10_34_29_167_from_194005031695.PDF</t>
+        </is>
+      </c>
+      <c r="V644" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>OD_Ribeira26_1Es</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>160803566520</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>100008157258</t>
+        </is>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>2023/7/14 ~ 2023/8/13</t>
+        </is>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>2023/7/14</t>
+        </is>
+      </c>
+      <c r="P645" t="inlineStr">
+        <is>
+          <t>2023/8/13</t>
+        </is>
+      </c>
+      <c r="Q645" t="inlineStr">
+        <is>
+          <t>2023/8/15</t>
+        </is>
+      </c>
+      <c r="R645" t="inlineStr">
+        <is>
+          <t>2023/9/5</t>
+        </is>
+      </c>
+      <c r="S645" t="n">
+        <v>171.22</v>
+      </c>
+      <c r="T645" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1IMFtjsfDTniyk9ok8k514rojR7BoA_vp/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U645" t="inlineStr">
+        <is>
+          <t>2023_08_16_07_43_11_228_from_100008157258.PDF</t>
+        </is>
+      </c>
+      <c r="V645" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>LA_Pia24A_2Es</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>160805391700</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>236001447615</t>
+        </is>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>2023/7/14 ~ 2023/8/13</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>2023/7/14</t>
+        </is>
+      </c>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>2023/8/13</t>
+        </is>
+      </c>
+      <c r="Q646" t="inlineStr">
+        <is>
+          <t>2023/8/15</t>
+        </is>
+      </c>
+      <c r="R646" t="inlineStr">
+        <is>
+          <t>2023/9/5</t>
+        </is>
+      </c>
+      <c r="S646" t="n">
+        <v>148.45</v>
+      </c>
+      <c r="T646" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1j-NNU7xgDznxBbk4oNEUxvgmh2MITNqX/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U646" t="inlineStr">
+        <is>
+          <t>2023_08_16_08_40_14_739_from_236001447615.PDF</t>
+        </is>
+      </c>
+      <c r="V646" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>JM_Cedofeita245_2TrEs</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>1522347</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>225637642</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>FT0001/127005417</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>2023/7/10 ~ 2023/8/11</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>2023/7/10</t>
+        </is>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="Q647" t="inlineStr">
+        <is>
+          <t>2023/8/15</t>
+        </is>
+      </c>
+      <c r="R647" t="inlineStr">
+        <is>
+          <t>2023/9/05</t>
+        </is>
+      </c>
+      <c r="S647" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="T647" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Xreq58oBkPwK1NWtKtjgl1CEE1V1iZnW/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U647" t="inlineStr">
+        <is>
+          <t>2023_08_17_17_44_56_973_from_BB_374122208325.PDF</t>
+        </is>
+      </c>
+      <c r="V647" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>AD_Alexandre233_2Fr</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>1504131</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>306524961</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>FT0001/126994942</t>
+        </is>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>2023/7/10 ~ 2023/8/10</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>2023/7/10</t>
+        </is>
+      </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>2023/8/10</t>
+        </is>
+      </c>
+      <c r="Q648" t="inlineStr">
+        <is>
+          <t>2023/8/14</t>
+        </is>
+      </c>
+      <c r="R648" t="inlineStr">
+        <is>
+          <t>2023/9/04</t>
+        </is>
+      </c>
+      <c r="S648" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="T648" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_glPdJYdXgAAfcHaOuUsHoKpZ4hkCN-P/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U648" t="inlineStr">
+        <is>
+          <t>2023_08_17_14_31_48_373_from_BB_710437809481.PDF</t>
+        </is>
+      </c>
+      <c r="V648" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>FG_Torrinha36_2Es</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>5070301</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>142343</t>
+        </is>
+      </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>230802709029868</t>
+        </is>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>2023/07/13 ~ 2023/08/09</t>
+        </is>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>2023/07/13</t>
+        </is>
+      </c>
+      <c r="P649" t="inlineStr">
+        <is>
+          <t>2023/08/09</t>
+        </is>
+      </c>
+      <c r="Q649" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R649" t="inlineStr">
+        <is>
+          <t>2023/8/26</t>
+        </is>
+      </c>
+      <c r="S649" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="T649" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19FCuRWkepU5u7YxMjngvMEAwEv895KnN/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U649" t="inlineStr">
+        <is>
+          <t>2023_08_17_19_27_08_921_from_985.AR.DP.145870837.PDF</t>
+        </is>
+      </c>
+      <c r="V649" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>LV_Camoes719_RCTr</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>4957062</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>4159449</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>10015919</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>230802709029571</t>
+        </is>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>2023/07/13 ~ 2023/08/08</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>2023/07/13</t>
+        </is>
+      </c>
+      <c r="P650" t="inlineStr">
+        <is>
+          <t>2023/08/08</t>
+        </is>
+      </c>
+      <c r="Q650" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R650" t="inlineStr">
+        <is>
+          <t>2023/8/26</t>
+        </is>
+      </c>
+      <c r="S650" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="T650" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16DcDUKoAfs3dTjXSOLINNoj-aOQbd_Ym/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U650" t="inlineStr">
+        <is>
+          <t>2023_08_17_15_43_05_769_from_985.AR.DP.145870540.PDF</t>
+        </is>
+      </c>
+      <c r="V650" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>TJ_Almada55_4DrTr</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>4997889</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>10015226</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>230802709022054</t>
+        </is>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>2023/07/08 ~ 2023/08/07</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>2023/07/08</t>
+        </is>
+      </c>
+      <c r="P651" t="inlineStr">
+        <is>
+          <t>2023/08/07</t>
+        </is>
+      </c>
+      <c r="Q651" t="inlineStr">
+        <is>
+          <t>2023/8/09</t>
+        </is>
+      </c>
+      <c r="R651" t="inlineStr">
+        <is>
+          <t>2023/8/24</t>
+        </is>
+      </c>
+      <c r="S651" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="T651" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ejDxBiVke_zc4dyIaOvSuNgZD8Ufb_pJ/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U651" t="inlineStr">
+        <is>
+          <t>2023_08_14_22_38_29_752_from_985.AR.DP.145841562.PDF</t>
+        </is>
+      </c>
+      <c r="V651" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>SM_Silveira29_1Fr</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>NOTA_CREDITO</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>5023876</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>4202877</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>10017398</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>220602709046429</t>
+        </is>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>2022/06/10 ~ 2022/06/28</t>
+        </is>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>2022/06/10</t>
+        </is>
+      </c>
+      <c r="P652" t="inlineStr">
+        <is>
+          <t>2022/06/28</t>
+        </is>
+      </c>
+      <c r="Q652" t="inlineStr">
+        <is>
+          <t>2022/6/28</t>
+        </is>
+      </c>
+      <c r="R652" t="inlineStr"/>
+      <c r="S652" t="n">
+        <v>-27.71</v>
+      </c>
+      <c r="T652" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1N0Zqw1kdIOD3e8o7LASoQZpEuTIKabTB/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U652" t="inlineStr">
+        <is>
+          <t>2023_08_07_17_55_30_625_from_07_22_985.AR.DP.142149178.PDF</t>
+        </is>
+      </c>
+      <c r="V652" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>MS_Cedofeita245_3EsTr</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>5038926</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>4178288</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>10020774</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>230802709030218</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>2023/07/11 ~ 2023/08/10</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>2023/07/11</t>
+        </is>
+      </c>
+      <c r="P653" t="inlineStr">
+        <is>
+          <t>2023/08/10</t>
+        </is>
+      </c>
+      <c r="Q653" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R653" t="inlineStr">
+        <is>
+          <t>2023/8/26</t>
+        </is>
+      </c>
+      <c r="S653" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="T653" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZruMXDdkXItzNkixBB-R8rXi8YDlcF96/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U653" t="inlineStr">
+        <is>
+          <t>2023_08_17_17_41_37_451_from_985.AR.DP.145871187.PDF</t>
+        </is>
+      </c>
+      <c r="V653" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>MS_Almada55_2DrTr</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>4985873</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>4178288</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>10015220</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>230802709022527</t>
+        </is>
+      </c>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>2023/07/08 ~ 2023/08/07</t>
+        </is>
+      </c>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>2023/07/08</t>
+        </is>
+      </c>
+      <c r="P654" t="inlineStr">
+        <is>
+          <t>2023/08/07</t>
+        </is>
+      </c>
+      <c r="Q654" t="inlineStr">
+        <is>
+          <t>2023/8/09</t>
+        </is>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>2023/8/24</t>
+        </is>
+      </c>
+      <c r="S654" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T654" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16bY2gVc3eSNl_Uyt8khqreUEnpORcW7Y/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U654" t="inlineStr">
+        <is>
+          <t>2023_08_14_20_59_28_327_from_985.AR.DP.145842035.PDF</t>
+        </is>
+      </c>
+      <c r="V654" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>OD_Ribeira26_1Es</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>1481730769</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>1450101606</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>A797712137</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q655" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S655" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="T655" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1wSve7yF9d-MCk6JJkmdBkrAWAL3z-KoP/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U655" t="inlineStr">
+        <is>
+          <t>2023_08_15_14_08_34_344_from_FT_A_797712137.PDF</t>
+        </is>
+      </c>
+      <c r="V655" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>CF_1Herculano17</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>CONTA_CONSUMO</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>1449134940</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>1419728541</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>A797712461</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>2023/8</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>2023/8/1</t>
+        </is>
+      </c>
+      <c r="P656" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="Q656" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="R656" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="S656" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="T656" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WklxRoEmsWIU7ezySqBSo1ChYsl2XXBl/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="U656" t="inlineStr">
+        <is>
+          <t>2023_08_15_14_08_40_726_from_FT_A_797712461.PDF</t>
+        </is>
+      </c>
+      <c r="V656" t="inlineStr">
+        <is>
+          <t>2023/08/18.12:17:16</t>
         </is>
       </c>
     </row>
